--- a/Warehouse/AB/judgement_logs_run4o.xlsx
+++ b/Warehouse/AB/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;31;03.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;45;32.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached for the theme for spirit week, so the function for no consensus has been called.
+MSG: None
+MSG: The selected theme for spirit week is Crazy Hat Day!
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, , crazy_hat_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -478,13 +479,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;42;30.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;57;02.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached on the theme for spirit week, I have called the function indicating no consensus.
+MSG: There was no consensus reached regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -500,13 +501,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;41;13.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;02;18.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -522,13 +523,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;37;16.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;51;16.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: There was no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -544,19 +545,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;34;28.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;53;09.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme selected for spirit week is Crazy Sock Day.
+MSG: The outcome of the discussion resulted in no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -566,19 +567,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;35;02.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;58;00.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme selected for spirit week is Crazy Sock Day, as both Amy and John came to a compromise on this idea.
+MSG: It seems there was no consensus reached regarding the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -588,13 +589,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;46;50.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;00;35.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: There was no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -610,13 +611,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;40;25.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;47;55.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has resulted in no consensus.
+MSG: There was no consensus reached for the theme of spirit week, so the appropriate action has been taken.
 </t>
         </is>
       </c>
@@ -632,19 +633,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;28;28.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;00;06.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The selected theme for spirit week is "Crazy Hat and Sock Day."
+MSG: Since there was no consensus reached, I have called the function no_consensus.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -654,7 +655,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;18;38.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;50;54.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -676,19 +677,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;48;48.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;52;18.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week is Crazy Sock Day!
+MSG: It appears that there was no consensus reached regarding the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -698,13 +699,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;38;22.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;58;55.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached during the discussion, I have called the function indicating that there is no consensus.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -720,13 +721,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;32;22.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;56;04.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached for the theme of spirit week.
+MSG: There was no consensus reached on the theme for spirit week, so I have called the function indicating that.
 </t>
         </is>
       </c>
@@ -742,13 +743,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;35;55.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;46;10.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus on the theme for spirit week.
+MSG: There was no consensus reached regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -764,13 +765,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;45;02.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;03;56.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the theme of spirit week resulted in no consensus.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -786,19 +787,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;30;13.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;49;45.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week that was selected is Crazy Sock Day.
+MSG: There was no consensus reached between the two parties on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -808,13 +809,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;22;22.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;55;30.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus between the parties involved, I called the function for no consensus.
+MSG: It appears there was no consensus reached regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -830,13 +831,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;21;36.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;01;24.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -852,13 +853,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;23;14.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;50;14.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The result is that there was no consensus reached for the theme for spirit week.
+MSG: The outcome of the discussion was that there was no consensus regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -874,13 +875,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;24;47.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;05;12.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week, so the decision has been made accordingly.
+MSG: Since there was no consensus reached, the function for no consensus has been called.
 </t>
         </is>
       </c>
@@ -896,13 +897,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;43;49.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;59;36.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached on the theme for spirit week, I have called the function for no consensus.
+MSG: There was no consensus reached regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -918,19 +919,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;47;56.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;54;26.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week, so I have called the function for no consensus.
+MSG: The outcome of the discussion is that they came to a compromise, which allows for both themes to be recognized.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -940,13 +941,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;46;06.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;45;05.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The result is that there was no consensus reached on the theme for spirit week.
+MSG: It appears that there was no consensus reached regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -962,13 +963,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;20;33.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;47;06.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus between the two options, I have called the function for no consensus.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -984,7 +985,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;26;30.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;03;08.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1006,13 +1007,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;19;40.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;54;52.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The decision reached was that there was no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1028,13 +1029,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;33;32.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;58;27.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the theme of spirit week resulted in no consensus.
+MSG: The outcome of the discussion was that there was no consensus reached.
 </t>
         </is>
       </c>
@@ -1050,61 +1051,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;27;26.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;04;48.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for spirit week is to celebrate both Crazy Hat Day and Crazy Sock Day as a compromise!
+MSG: There was no consensus on the theme for spirit week, so I have called the function for no consensus.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;24;06.json</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion resulted in no consensus being reached for the spirit week theme.
-</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no_consensus, </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>./Warehouse/AB/run4o_discovery_03_27_2025 at_22;29;14.json</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: There was no consensus on the theme for spirit week.
-</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
         <is>
           <t xml:space="preserve">no_consensus, </t>
         </is>

--- a/Warehouse/AB/judgement_logs_run4o.xlsx
+++ b/Warehouse/AB/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,14 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: None
-MSG: The selected theme for spirit week is Crazy Hat Day!
+MSG: The theme for spirit week has been selected as Crazy Hat Day.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, , crazy_hat_day_was_selected, </t>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -479,13 +478,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;57;02.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;09;17.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: It seems that there was no consensus reached between Amy and John regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -501,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;02;18.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;34;12.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The theme for spirit week that was selected is "Crazy Socks and Hats Day."
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -523,19 +522,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;51;16.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;01;33.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus on the theme for spirit week.
+MSG: The decision for spirit week has been made: they came to a compromise!
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -545,13 +544,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;53;09.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;06;27.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion resulted in no consensus on the theme for spirit week.
+MSG: The result of the discussion is that there was no consensus reached between Amy and John regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -567,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;58;00.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;05;06.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It seems there was no consensus reached regarding the theme for spirit week.
+MSG: The theme for spirit week is “Crazy Hat &amp; Sock Day,” as both John and Amy came to a compromise.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -589,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;00;35.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;23;46.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus on the theme for spirit week.
+MSG: Both Amy and John came to a compromise, selecting Crazy Sock Day this Friday and planning for Crazy Hat Day the following week.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -611,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;47;55.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;31;12.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached for the theme of spirit week, so the appropriate action has been taken.
+MSG: The result of the discussion is that they came to a compromise for the spirit week theme.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -633,13 +632,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;00;06.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;32;46.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached, I have called the function no_consensus.
+MSG: There was no consensus reached regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -655,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;50;54.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;06;28.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The theme for spirit week has been decided through a compromise between Crazy Hat Day and Crazy Sock Day.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -677,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;52;18.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;16;02.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears that there was no consensus reached regarding the theme for spirit week.
+MSG: The theme for spirit week has been decided as a compromise between crazy hat day and crazy sock day.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -699,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;58;55.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;14;52.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The theme for spirit week has been decided as a compromise between the two sides.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -721,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;56;04.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;32;06.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week, so I have called the function indicating that.
+MSG: The theme for spirit week is Crazy Hat Day, with the fun allowance of crazy socks as well!
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -743,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;46;10.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;57;02.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: It appears there was no consensus reached regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -765,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;03;56.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_21;55;56.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: There was no consensus reached on the theme for spirit week, so I have called for no consensus.
 </t>
         </is>
       </c>
@@ -787,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;49;45.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;02;18.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached between the two parties on the theme for spirit week.
+MSG: The outcome of the discussion is that both parties came to a compromise, so the theme for spirit week is "Crazy Sock and Hat Day!"
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -809,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;55;30.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;44;37.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears there was no consensus reached regarding the theme for spirit week.
+MSG: The decision has been made: both sides have come to a compromise, and the theme for spirit week is set!
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -831,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;01;24.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;15;20.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: Since there was no consensus reached between Amy and John regarding the theme for spirit week, I have called the no_consensus function.
 </t>
         </is>
       </c>
@@ -853,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;50;14.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;16;46.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion was that there was no consensus regarding the theme for spirit week.
+MSG: The outcome of the discussion is that they came to a compromise.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -875,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;05;12.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;08;35.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached, the function for no consensus has been called.
+MSG: The outcome of the discussion is that they came to a compromise.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -897,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;59;36.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;52;33.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: The theme for spirit week is the compromise of "Crazy Sock and Crazy Hat Day."
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -919,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;54;26.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;10;11.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion is that they came to a compromise, which allows for both themes to be recognized.
+MSG: The decision for spirit week is that they came to a compromise.
 </t>
         </is>
       </c>
@@ -941,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;45;05.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;21;53.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears that there was no consensus reached regarding the theme for spirit week.
+MSG: The theme selected for spirit week is "Crazy Hat Day."
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -963,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;47;06.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;39;11.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The decision for spirit week is that they came to a compromise: Crazy Hat and Sock Day will be celebrated!
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -985,19 +984,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;03;08.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;06;00.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The theme for spirit week is "Crazy Sock and Hat Day," as both parties came to a compromise on this theme.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1007,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;54;52.json</t>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;58;15.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision reached was that there was no consensus on the theme for spirit week.
+MSG: The decision has been made: they came to a compromise for spirit week!
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1029,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;58;27.json</t>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;09;29.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion was that there was no consensus reached.
+MSG: The discussion did not lead to a consensus, so I called for no consensus.
 </t>
         </is>
       </c>
@@ -1051,19 +1050,3869 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;46;25.json</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise, which will incorporate "Crazy Hats Day" with "Crazy Socks" as a fun accessory option.
+</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;38;42.json</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;14;13.json</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;17;27.json</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_21;59;30.json</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion between Amy and John, they did not reach a consensus on which theme to select for spirit week. Therefore, I invoke the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;56;38.json</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems that there was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;43;24.json</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, there was no consensus reached between Amy and John regarding the theme for spirit week. Therefore, the decision is to call no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;50;11.json</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;00;52.json</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems that John and Amy did not come to a consensus regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;04;23.json</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion did not lead to a consensus, so there is no agreed theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;26;14.json</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise that includes both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;28;30.json</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise that combines elements of both ideas.
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;27;50.json</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week resulted in no consensus between the parties involved.
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;10;04.json</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;03;07.json</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there wasn't a consensus reached between Amy and John on the theme for spirit week, I have called the no_consensus function.
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_01;06;24.json</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;02;13.json</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, it seems that there was no consensus reached regarding the theme for spirit week. Therefore, I have called the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;02;21.json</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between the two sides, I have called for no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;04;30.json</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they have come to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;21;03.json</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;24;54.json</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat and Sock Day," as both Amy and John came to a compromise on this decision.
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;11;16.json</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise, incorporating both crazy sock day and crazy hat day into the schedule.
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;00;30.json</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision resulted in no consensus between both parties regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;31;20.json</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome is that both Amy and John came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_16;57;33.json</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;02;23.json</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Amy and John regarding the theme for spirit week, I have called the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;31;58.json</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise for Spirit Week!
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;39;34.json</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise, leading to the selection of "Crazy Sock and Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_16;59;25.json</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Given that no consensus was reached between Amy and John on the theme for spirit week, the decision is to call no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;07;54.json</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;51;16.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion shows that there was no consensus reached between John and Amy regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;13;36.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, resulting in a hybrid Crazy Hat and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;53;09.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the spirit week theme resulted in no consensus from both parties.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;58;00.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;38;09.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;09;08.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;13;30.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: After considering the discussion between Amy and John, it appears that they did not come to a consensus on the theme for spirit week. Therefore, the appropriate outcome is "no_consensus."
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;41;49.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision made for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;09;51.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise. The theme for spirit week will be a combination that incorporates both "Crazy Hat Day" and "Crazy Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;20;55.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;37;45.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;01;25.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;10;37.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, featuring "Crazy Hat and Sock Day"!
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;11;56.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not result in a consensus on whether to select crazy hat day or crazy sock day. Therefore, the call to action is no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;17;40.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise for Spirit Week: Crazy Sock Day with the added fun of crazy hats.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;49;22.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that there was no consensus reached between the two sides.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;48;37.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat and Crazy Sock Day," as both John Smith and Amy Nakamura came to a compromise on this decision.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;40;12.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion did not lead to a consensus on the theme for spirit week, so I will call the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;33;55.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: 
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;16;11.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;30;36.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;05;53.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not reach a consensus, so I have called for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;00;35.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;12;44.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;47;55.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision on the theme for spirit week has resulted in no consensus being reached.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;20;01.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since John and Amy did not come to a consensus on a specific theme for spirit week, I will call the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;51;47.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;11;51.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;42;32.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;07;27.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;11;13.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;20;21.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;00;06.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;50;54.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is decided as a compromise: "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;51;10.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise! It will be "Crazy Sock and Hat Day".
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;34;37.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise for the spirit week theme!
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;56;04.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems that there was no consensus reached between Amy and John regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;02;58.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Sock and Hat Day," as both parties came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;06;15.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is a compromise between Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;16;44.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion resulted in a compromise, leading to the selection of "Crazy Sock and Hat Day" for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;29;09.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as "Crazy Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;07;22.json</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: "Crazy Hat or Crazy Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;52;18.json</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;22;23.json</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;33;25.json</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, which means that both Crazy Hat Day and Crazy Sock Day will be selected!
+</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;03;53.json</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion indicates that there was no consensus reached on a theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;58;55.json</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_21;55;23.json</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that there was no consensus reached.
+</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_21;54;23.json</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;56;04.json</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached on the theme for spirit week, I have called for no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_16;58;46.json</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, resulting in 'Crazy Hat and Sock Day' being selected!
+</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;46;10.json</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that there was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;03;33.json</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_21;53;39.json</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week has resulted in a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;08;59.json</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made, and the theme for spirit week is "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;35;26.json</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;24;02.json</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise, selecting both Crazy Hat Day and Crazy Sock Day for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;13;52.json</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion did not result in a consensus, so I have called the function indicating there is no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;38;33.json</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached between John and Amy regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;13;01.json</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;08;57.json</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as crazy hat day.
+</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;33;28.json</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;40;51.json</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, there was no consensus reached regarding the theme for spirit week. Therefore, the decision is to call no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;47;16.json</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise. The theme for spirit week will incorporate both crazy sock day and crazy hat day.
+</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;04;26.json</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached on whether to choose Crazy Hat Day or Crazy Sock Day, I have called for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;47;18.json</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;53;00.json</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is decided as both Crazy Hat Day and Crazy Sock Day were selected as a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;18;31.json</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;14;30.json</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, there was no consensus reached between Amy and John regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;03;56.json</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week was selected as a compromise between crazy hat day and crazy sock day.
+</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;55;14.json</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;49;45.json</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion shows that they came to a compromise, so the theme for spirit week is set!
+</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_30_2025 at_09;04;22.json</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;55;30.json</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems that there was no consensus reached between Amy and John regarding the spirit week theme.
+</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;37;19.json</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise. The theme for spirit week will be "Crazy Hat Day" with optional colorful socks.
+</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;45;36.json</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;35;42.json</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome decided for spirit week is a compromise, and Crazy Sock Day was selected.
+</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;01;24.json</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made; they came to a compromise for the spirit week theme.
+</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;10;40.json</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, selecting "Crazy Hat and Sock Day" as the theme.
+</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_21;56;44.json</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;00;02.json</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;40;55.json</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus between Amy and John regarding the theme for spirit week, so I have called for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;48;23.json</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Given that there was no consensus between John and Amy on the theme for spirit week, I have concluded that there is no agreement on selecting a theme.
+</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;07;06.json</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise, choosing both Crazy Hat Day and Crazy Sock Day for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;05;18.json</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been selected, and they have come to a compromise on "Crazy Headwear Day."
+</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;10;52.json</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Amy and John on the theme for spirit week, I have called the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;39;35.json</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for this week's spirit week is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;05;04.json</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise, and it will be a combined Crazy Sock and Crazy Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;50;14.json</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not lead to a consensus between John and Amy for the theme of spirit week, so I have called for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;30;29.json</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;37;55.json</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Amy and John regarding the theme for spirit week, I have called the no_consensus function.
+</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;25;16.json</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_21;58;41.json</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Sock and Hat Day," as John and Amy came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;05;48.json</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;25;26.json</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus between John and Amy regarding the selection of Crazy Hat Day or Crazy Sock Day, I have called for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;30;07.json</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is a compromise, with both Crazy Hat Day and Crazy Sock Day selected!
+</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;11;50.json</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between crazy hat day and crazy sock day.
+</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;44;08.json</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;54;11.json</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between them regarding the theme for spirit week, the appropriate decision is to call for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;59;22.json</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached between John and Amy regarding the Spirit Week theme.
+</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;07;00.json</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: Crazy Sock and Hat Day has been selected!
+</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;05;12.json</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;01;30.json</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise. The theme for spirit week will be a combination of Crazy Hat and Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;09;54.json</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, there was no consensus reached between Amy and John regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;19;50.json</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;58;57.json</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;24;39.json</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise of both crazy hat day and crazy sock day.
+</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;19;23.json</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise. The selected theme is "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;24;19.json</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is a compromise, so the theme has been set for "Crazy Sock and Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;03;06.json</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise that includes both Crazy Sock Day and Crazy Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;08;33.json</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_21;58;21.json</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise, and they will celebrate "Crazy Sock and Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;59;36.json</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;10;26.json</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for this week's spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_21;57;29.json</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not lead to a consensus between Amy and John. Therefore, no theme was selected for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;49;57.json</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;34;51.json</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;54;26.json</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is decided as a compromise. They will have Crazy Sock Day this Friday and plan to hold Crazy Hat Day later in the month.
+</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;07;09.json</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_16;58;13.json</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion has resulted in no consensus being reached for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;45;05.json</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, and it will be "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;15;32.json</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, incorporating both "Crazy Sock Day" and "Crazy Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;47;06.json</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, there was no consensus reached regarding the theme for spirit week. Therefore, I have called the function `no_consensus`.
+</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;03;08.json</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise with "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_30_2025 at_09;03;41.json</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for this week's spirit week is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;54;52.json</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is a compromise on "Crazy Sock &amp; Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_21;52;53.json</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise! Both Crazy Sock Day and Crazy Hat Day will be celebrated.
+</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;36;51.json</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_10;58;27.json</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;00;12.json</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week theme is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;57;42.json</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, selecting "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;36;24.json</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;27;02.json</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made, and they came to a compromise for the theme of spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_10;03;49.json</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between John and Amy regarding the theme for spirit week, I have called the function indicating no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;26;16.json</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_21;52;06.json</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_09;53;30.json</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise that includes both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_22;05;16.json</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is Crazy Hat and Sock Day, as both Amy and John came to a compromise on this decision.
+</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_17;05;32.json</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Sock and Hat Day," as Amy and John came to a compromise on this idea.
+</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;22;02.json</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Amy and John on the theme for spirit week, I have called the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;49;05.json</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems that there was no consensus reached between John and Amy regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_03_2025 at_20;23;18.json</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, combining both "Crazy Hat Day" and "Crazy Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
           <t>./Warehouse/AB/run4o_discovery_03_28_2025 at_11;04;48.json</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: There was no consensus on the theme for spirit week, so I have called the function for no consensus.
-</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no_consensus, </t>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise, which is "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;22;53.json</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Sock and Hat Day," as both Amy and John came to a compromise on this exciting proposal!
+</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_03_31_2025 at_11;32;40.json</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as "Crazy Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>./Warehouse/AB/run4o_discovery_04_01_2025 at_21;12;48.json</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/AB/judgement_logs_run4o.xlsx
+++ b/Warehouse/AB/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No decision was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie selection has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to "Barbie" for the movie shown on Friday.
+MSG: The decision regarding which movie to show on Friday was not finalized, so the call to the appropriate function has been executed successfully.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, and no movie will be selected for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee did not reach a decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the event on Friday.
+MSG: The decision process concluded without reaching a consensus on the movie to be shown on Friday, hence no action was taken.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for the showing on Friday.
 </t>
         </is>
       </c>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision made was to not acquire a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" will be acquired.
 </t>
         </is>
       </c>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to show on Friday.
+MSG: The decision has been recorded, and there was no agreement on a movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded that "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" as it was selected by the committee to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made. The movie will be shown on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision was recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to show "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the movie selected for Friday.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have successfully recorded the decision to acquire rights for both movies.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision from the meeting indicates that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to show both "Barbie" and "Oppenheimer" in their entirety. Therefore, the rights to acquire both movies will be obtained.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to screen "Barbie" for the event focused on celebrating seniors.
+MSG: The decision has been recorded, and "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been confirmed.
 </t>
         </is>
       </c>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to show both movies has been recorded. These will be the selections for Friday.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision-making process did not result in a clear choice for the movie to be shown on Friday, so I'll record that no decision was made.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has ended without an agreement.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Oppenheimer."
+MSG: The decision-making process concluded without a plan for Friday's movie, resulting in no definitive choice being made.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the graduation event on Friday.
+MSG: The decision regarding the movie to be shown on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision process did not lead to a clear choice for the movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been officially recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the event.
+MSG: The decision has been recorded. The movie "Barbie" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision regarding the movie for Friday was made.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie."
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to show "Barbie" on Friday.
+MSG: The decision-making process concluded without any agreement on a movie for Friday, resulting in no selection being made.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision is that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the senior event.
+MSG: The decision about Friday's movie has not been made.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday screening.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to show the movie "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie" for the seniors' event.
+MSG: The decision about Friday's movie has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision as knowing that no choice of a movie is possible without further discussion.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie selection for Friday's event.
+MSG: The rights for "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision to show "Oppenheimer" has been successfully confirmed.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show **"Barbie"** at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for screening on Friday.
+MSG: The decision has been processed, and no selection for Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming events.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a definitive agreement about which movie to show on Friday, resulting in a decision to collect further opinions from parents. Therefore, I will call the no_decision function.
+MSG: The committee did not reach a decision on what movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the event.
+MSG: The rights to both movies, "Oppenheimer" and "Barbie," have been acquired.
 </t>
         </is>
       </c>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been registered, and no movie will be acquired for Friday as the committee reached no consensus.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision to select "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision-making process did not yield a clear choice for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no decision regarding the movie for Friday's screening.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1804,13 +1804,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded: no decision was made regarding which movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the conversation, I will proceed with the decision to call the `no_decision` function. The committee did not reach a consensus on which movie to show on Friday, indicating that no decision can be made at this time.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding the movie for Friday has concluded without a selection.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,13 +1870,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming assembly.
+MSG: The decision about which movie to show on Friday was not finalized, so the outcome is recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has explicitly decided to show both movies, "Barbie" and "Oppenheimer," on Friday. Therefore, I will acquire the rights for both films.
+MSG: The rights for both movies, "Oppenheimer" and "Barbie," have been successfully acquired for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1914,13 +1914,13 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has not reached a final decision on which movie to acquire. They have opted to conduct a survey to determine the students' preferences, indicating that no agreement has been made regarding Friday's movie choice. Therefore, I will call the no_decision function.
+MSG: The decision has been recorded: no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -1958,13 +1958,13 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1980,13 +1980,13 @@
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made, so no action will be taken regarding acquiring rights for either film at this time.
 </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for "Barbie" have been successfully acquired for the upcoming event.
+MSG: The decision has been successfully recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2046,13 +2046,13 @@
       <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" based on the committee's discussions and the educational value it offers to students.
+MSG: The decision from the meeting is that no consensus was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2068,13 +2068,13 @@
       <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming screening on Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2090,13 +2090,13 @@
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the graduation assembly on Friday.
+MSG: The decision about which movie to show on Friday resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2134,13 +2134,13 @@
       <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming graduation event.
+MSG: The decision regarding the movie to be shown on Friday resulted in no conclusion.
 </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded: "Oppenheimer" will be acquired for the screening.
 </t>
         </is>
       </c>
@@ -2178,13 +2178,13 @@
       <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the performance rights for "Oppenheimer."
+MSG: The decision has been recorded, indicating that no movie was selected to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2200,13 +2200,13 @@
       <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the upcoming assembly.
+MSG: The decision regarding the movie to be shown on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2244,13 +2244,13 @@
       <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision-making process did not lead to a definitive choice for Friday's movie, resulting in no agreement on what to show.
 </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2266,13 +2266,13 @@
       <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process resulted in no consensus on a movie for Friday, so the outcome is that no decision was made.
 </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2288,13 +2288,13 @@
       <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2310,13 +2310,13 @@
       <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been logged as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2332,13 +2332,13 @@
       <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" based on the committee's discussions and alignment with the themes deemed important for the graduating seniors.
+MSG: The committee did not reach a decision regarding a movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2354,13 +2354,13 @@
       <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday remains undecided.
 </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2376,13 +2376,13 @@
       <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the graduation event.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2398,13 +2398,13 @@
       <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's agreement to prioritize student input and connection with the film.
+MSG: The decision has been recorded as "no decision." If you have any further actions or questions, feel free to let me know!
 </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2420,13 +2420,13 @@
       <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision-making process did not lead to a consensus about which movie to show on Friday, so no decision has been made.
 </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2442,13 +2442,13 @@
       <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
+MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2464,13 +2464,13 @@
       <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision-making process did not result in a choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2486,13 +2486,13 @@
       <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision process concluded without a consensus about the movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday. The committee has come to a consensus on this choice based on the discussions surrounding thematic engagement and educational value.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -2530,13 +2530,13 @@
       <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: No decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2552,13 +2552,13 @@
       <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2574,13 +2574,13 @@
       <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming screening.
+MSG: The decision has been recorded, and no movie is selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2596,13 +2596,13 @@
       <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: I have acquired the rights for both movies to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2640,13 +2640,13 @@
       <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie screening on Friday.
+MSG: The rights to both movies have been successfully acquired for showing.
 </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2662,13 +2662,13 @@
       <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show a movie on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2684,13 +2684,13 @@
       <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2706,13 +2706,13 @@
       <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not come to a decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2728,13 +2728,13 @@
       <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the showing on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2750,13 +2750,13 @@
       <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2772,13 +2772,13 @@
       <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process regarding the movie to be shown on Friday has concluded without arriving at a specific choice.
 </t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2794,13 +2794,13 @@
       <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the event.
+MSG: The decision regarding a movie for Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2816,13 +2816,13 @@
       <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Oppenheimer."
+MSG: The decision has been made, and no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
       <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," as they plan to feature both films in their upcoming event.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -2860,13 +2860,13 @@
       <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown to high school seniors.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2882,13 +2882,13 @@
       <c r="C112" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming event.
+MSG: The decision has been recorded as no decision about Friday’s movie can be made.
 </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       <c r="C113" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to show "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="C114" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="C115" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has selected "Barbie" to be shown on Friday.
+MSG: The decision made by the committee is to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2970,7 +2970,7 @@
       <c r="C116" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer".
 </t>
         </is>
       </c>
@@ -2992,13 +2992,13 @@
       <c r="C117" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3014,13 +3014,13 @@
       <c r="C118" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown at the event.
+MSG: The decision has been recorded as no agreement was reached on which movie to show.
 </t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3036,13 +3036,13 @@
       <c r="C119" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3058,13 +3058,13 @@
       <c r="C120" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3080,13 +3080,13 @@
       <c r="C121" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about Friday’s movie has not been made.
 </t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3102,13 +3102,13 @@
       <c r="C122" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The function for no decision has been successfully called, indicating that the committee did not reach a consensus on the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3124,13 +3124,13 @@
       <c r="C123" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: I have successfully acquired the rights for both movies to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3146,13 +3146,13 @@
       <c r="C124" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights to both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
       <c r="C125" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior assembly.
+MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="C126" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -3212,13 +3212,13 @@
       <c r="C127" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been logged as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3234,13 +3234,13 @@
       <c r="C128" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: I have recorded the decision as "no decision" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3256,13 +3256,13 @@
       <c r="C129" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the Friday event.
+MSG: The decision regarding the movie to be shown on Friday ended without reaching a mutual agreement, which means no decision has been made.
 </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3278,13 +3278,13 @@
       <c r="C130" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision-making process has concluded without an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3300,13 +3300,13 @@
       <c r="C131" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision was not reached regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3322,13 +3322,13 @@
       <c r="C132" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3344,13 +3344,13 @@
       <c r="C133" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision to acquire a movie for Friday has not been made, as no consensus was reached.
 </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3366,13 +3366,13 @@
       <c r="C134" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3388,13 +3388,13 @@
       <c r="C135" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision process concluded without a consensus on which movie to show, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3410,7 +3410,7 @@
       <c r="C136" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired.
 </t>
         </is>
       </c>
@@ -3432,13 +3432,13 @@
       <c r="C137" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to **"Barbie"** for the movie to be shown on Friday.
+MSG: The rights to both movies have been acquired for this Friday's showing.
 </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3454,13 +3454,13 @@
       <c r="C138" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" for the upcoming student event.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3476,13 +3476,13 @@
       <c r="C139" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" for the upcoming public performance event.
+MSG: The decision has been recorded as no selection for the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3498,13 +3498,13 @@
       <c r="C140" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie **“Barbie.”**
+MSG: The committee did not reach a decision on which movie to show.
 </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3520,13 +3520,13 @@
       <c r="C141" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the chosen movie for the event on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3542,13 +3542,13 @@
       <c r="C142" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the screening on Friday.
+MSG: The decision has been recorded as a no decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3564,13 +3564,13 @@
       <c r="C143" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie event.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       <c r="C144" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" as the movie for Friday's event.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -3608,13 +3608,13 @@
       <c r="C145" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3630,13 +3630,13 @@
       <c r="C146" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the school's event on Friday.
+MSG: The decision has been recorded as no decision was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3652,13 +3652,13 @@
       <c r="C147" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has concluded without a final choice.
 </t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3674,13 +3674,13 @@
       <c r="C148" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie has been chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3696,13 +3696,13 @@
       <c r="C149" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3718,13 +3718,13 @@
       <c r="C150" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       <c r="C151" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for the movie "Oppenheimer" for the upcoming event.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" have been acquired for the showing on Friday.
 </t>
         </is>
       </c>
@@ -3762,13 +3762,13 @@
       <c r="C152" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded as no decision on Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
       <c r="C153" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I've made the decision to acquire the rights for "Oppenheimer" as it aligns with the committee's discussions and consensus for the event.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -3806,13 +3806,13 @@
       <c r="C154" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision process did not result in a clear choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3828,7 +3828,7 @@
       <c r="C155" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -3850,13 +3850,13 @@
       <c r="C156" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie for Friday has not been made, reflecting a no-decision outcome.
 </t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3872,13 +3872,13 @@
       <c r="C157" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision process for the movie to be shown on Friday ended without a clear agreement on which movie to select.
 </t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3894,13 +3894,13 @@
       <c r="C158" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       <c r="C159" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired.
 </t>
         </is>
       </c>
@@ -3938,7 +3938,7 @@
       <c r="C160" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the assembly on Friday.
+MSG: The decision to show "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="C161" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the movie "Barbie" will be acquired for the assembly.
+MSG: The decision is to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="C162" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the performance rights for "Barbie" have been selected for acquisition.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -4004,13 +4004,13 @@
       <c r="C163" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been recorded.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       <c r="C164" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -4048,13 +4048,13 @@
       <c r="C165" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that there was no agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4070,13 +4070,13 @@
       <c r="C166" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision about which movie to show on Friday was not finalized, leading to no decision being made.
 </t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4092,13 +4092,13 @@
       <c r="C167" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: Based on the provided criteria, a decision cannot be made.
 </t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4114,7 +4114,7 @@
       <c r="C168" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the movie "Barbie" will be acquired for the event.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -4136,13 +4136,13 @@
       <c r="C169" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4158,13 +4158,13 @@
       <c r="C170" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: My decision is to call the `no_decision` function, as the committee could not reach a consensus on the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       <c r="C171" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the Friday screening.
+MSG: The decision has been recorded, and "Oppenheimer" is the selected movie to acquire rights for.
 </t>
         </is>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="C172" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded and the rights to "Oppenheimer" have been acquired for the screening on Friday.
 </t>
         </is>
       </c>
@@ -4224,13 +4224,13 @@
       <c r="C173" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been recorded as no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4246,13 +4246,13 @@
       <c r="C174" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4268,13 +4268,13 @@
       <c r="C175" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4290,13 +4290,13 @@
       <c r="C176" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" for the assembly on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       <c r="C177" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="C178" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to show "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="C179" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for the movie "Barbie" to be shown at the assembly.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -4378,13 +4378,13 @@
       <c r="C180" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4400,13 +4400,13 @@
       <c r="C181" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to show "Barbie."
+MSG: The committee has not made a decision regarding the movie for Friday. As such, no selection has been made.
 </t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4422,7 +4422,7 @@
       <c r="C182" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been successfully made.
 </t>
         </is>
       </c>
@@ -4444,13 +4444,13 @@
       <c r="C183" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming assembly.
+MSG: The decision about which movie to show on Friday was ultimately not made, so there are no further actions required.
 </t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4466,13 +4466,13 @@
       <c r="C184" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision to showcase a movie on Friday could not be made, resulting in no acquisition of rights.
 </t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
       <c r="C185" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the graduation assembly.
+MSG: The decision has been recorded: "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -4510,13 +4510,13 @@
       <c r="C186" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to show a movie on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       <c r="C187" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee explicitly agreed to include both films in the event on Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -4554,13 +4554,13 @@
       <c r="C188" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussions and their goal of emphasizing student engagement in the proposal.
+MSG: The decision has been made to acquire the rights to both movies.
 </t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4576,13 +4576,13 @@
       <c r="C189" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4598,13 +4598,13 @@
       <c r="C190" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4620,13 +4620,13 @@
       <c r="C191" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4642,13 +4642,13 @@
       <c r="C192" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming graduation event.
+MSG: The conversation ended without a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4664,13 +4664,13 @@
       <c r="C193" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision regarding the movie to be shown on Friday ended without a clear agreement.
 </t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       <c r="C194" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming senior event.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -4708,13 +4708,13 @@
       <c r="C195" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday screening.
+MSG: The decision about which movie to show on Friday has ended without a consensus.
 </t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4730,13 +4730,13 @@
       <c r="C196" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision-making process resulted in no agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4752,13 +4752,13 @@
       <c r="C197" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Barbie" has been selected for acquisition and will be shown on Friday.
+MSG: The decision resulted in no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4774,13 +4774,13 @@
       <c r="C198" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about Friday's movie was not made.
 </t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4796,13 +4796,13 @@
       <c r="C199" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's movie event.
+MSG: The decision about which movie to show on Friday was not made in the meeting.
 </t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
       <c r="C200" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for both "Barbie" and "Oppenheimer" for the double feature screening on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -4840,13 +4840,13 @@
       <c r="C201" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4862,13 +4862,13 @@
       <c r="C202" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for showing "Oppenheimer" on Friday.
+MSG: The decision has been recorded as no final choice was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="C203" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to "Barbie" for the upcoming public performance.
+MSG: The decision has been recorded to acquire rights for "Barbie."
 </t>
         </is>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="C204" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded for "Barbie" to be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -4928,13 +4928,13 @@
       <c r="C205" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for *Barbie* to be shown at the event on Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4950,13 +4950,13 @@
       <c r="C206" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire public performance rights for "Oppenheimer."
+MSG: The decision about which movie to show on Friday cannot be made at this time.
 </t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
       <c r="C207" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie," as agreed upon by the committee for the movie screening on Friday.
+MSG: The decision has been made to select "Barbie" as the movie for Friday.
 </t>
         </is>
       </c>
@@ -4994,13 +4994,13 @@
       <c r="C208" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision as "no decision" regarding Friday’s movie.
 </t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5016,13 +5016,13 @@
       <c r="C209" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday has not been made, and the function for no decision has been executed successfully.
 </t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5038,13 +5038,13 @@
       <c r="C210" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded with no agreement on what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       <c r="C211" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the graduation event on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="C212" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire rights for "Oppenheimer" has been confirmed.
 </t>
         </is>
       </c>
@@ -5104,13 +5104,13 @@
       <c r="C213" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5126,13 +5126,13 @@
       <c r="C214" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded: no movie selection has been made.
 </t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       <c r="C215" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
 </t>
         </is>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="C216" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the upcoming event.
+MSG: The decision has been made to acquire "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -5192,13 +5192,13 @@
       <c r="C217" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to not acquire a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5214,13 +5214,13 @@
       <c r="C218" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5236,13 +5236,13 @@
       <c r="C219" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at Friday's event.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the selection of a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
       <c r="C220" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming graduation event.
+MSG: The movie "Barbie" has been successfully selected for Friday.
 </t>
         </is>
       </c>
@@ -5280,7 +5280,7 @@
       <c r="C221" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -5302,13 +5302,13 @@
       <c r="C222" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Oppenheimer" for the upcoming event based on its emphasis on critical discussions and educational value.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5324,13 +5324,13 @@
       <c r="C223" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision for Friday's movie has been noted as unresolved with no agreement reached.
 </t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       <c r="C224" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the screening on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -5368,13 +5368,13 @@
       <c r="C225" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision about the movie to be shown on Friday was not made, and thus, the result is no decision.
 </t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
       <c r="C226" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's showing.
 </t>
         </is>
       </c>
@@ -5412,13 +5412,13 @@
       <c r="C227" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the senior event.
+MSG: The decision process concluded without an agreement on which movie to show on Friday, resulting in no selection being made.
 </t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       <c r="C228" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the screening on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for Friday's movie.
 </t>
         </is>
       </c>
@@ -5456,13 +5456,13 @@
       <c r="C229" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" and it will be shown at the event.
+MSG: The decision about which movie to show on Friday has not been made, leading to the conclusion of no agreement on the selection.
 </t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       <c r="C230" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie."
 </t>
         </is>
       </c>
@@ -5500,7 +5500,7 @@
       <c r="C231" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -5522,13 +5522,13 @@
       <c r="C232" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without a definitive choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5544,13 +5544,13 @@
       <c r="C233" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the screening on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie selection.
 </t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5566,13 +5566,13 @@
       <c r="C234" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Oppenheimer" will be acquired as the selected movie for Friday.
+MSG: The decision about Friday's movie could not be reached, and the conversation did not lead to a final choice.
 </t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5588,13 +5588,13 @@
       <c r="C235" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: I have called the function for no decision, indicating that the committee was unable to reach a consensus on what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5610,7 +5610,7 @@
       <c r="C236" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the senior assembly on Friday.
+MSG: The rights for "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -5632,13 +5632,13 @@
       <c r="C237" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision about Friday's movie cannot be made at this time.
 </t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       <c r="C238" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show "Barbie" as the movie for Friday has been successfully recorded.
 </t>
         </is>
       </c>
@@ -5676,7 +5676,7 @@
       <c r="C239" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the film to be shown on Friday.
+MSG: The decision has been recorded, and "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -5698,13 +5698,13 @@
       <c r="C240" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The rights to both movies have been acquired successfully for the event on Friday.
 </t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
       <c r="C241" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for both "Oppenheimer" and "Barbie" to be shown during the graduation event, as they will be featuring both films in their entirety.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
@@ -5742,7 +5742,7 @@
       <c r="C242" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Barbie" has been made, as it will be shown during the senior assembly.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -5764,7 +5764,7 @@
       <c r="C243" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been recorded successfully. The movie will be shown at the senior assembly.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -5786,7 +5786,7 @@
       <c r="C244" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights for the movie "Oppenheimer."
 </t>
         </is>
       </c>
@@ -5808,13 +5808,13 @@
       <c r="C245" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been logged, indicating that there was no consensus on a movie choice for Friday.
 </t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5830,13 +5830,13 @@
       <c r="C246" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5852,13 +5852,13 @@
       <c r="C247" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the graduation assembly.
+MSG: No decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5874,13 +5874,13 @@
       <c r="C248" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no consensus was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5896,13 +5896,13 @@
       <c r="C249" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5918,13 +5918,13 @@
       <c r="C250" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision process concluded without a specific agreement on which movie to show on Friday, so no action will be taken for acquiring movie rights.
 </t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5940,13 +5940,13 @@
       <c r="C251" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5962,13 +5962,13 @@
       <c r="C252" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision has been recorded with no choice made for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5984,13 +5984,13 @@
       <c r="C253" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       <c r="C254" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for the upcoming screening.
 </t>
         </is>
       </c>
@@ -6028,13 +6028,13 @@
       <c r="C255" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded. The movie will be shown to the students, aligning with the committee's agreed focus on creativity and self-acceptance.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -6050,13 +6050,13 @@
       <c r="C256" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not make a decision about which movie to show on Friday, so the result is no decision.
 </t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6072,13 +6072,13 @@
       <c r="C257" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6094,7 +6094,7 @@
       <c r="C258" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -6116,7 +6116,7 @@
       <c r="C259" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" for the screening on Friday.
+MSG: The movie rights for both "Oppenheimer" and "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -6138,13 +6138,13 @@
       <c r="C260" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the end-of-year event for the students, focusing on celebration and inspiration.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6160,13 +6160,13 @@
       <c r="C261" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The meeting concluded without making a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       <c r="C262" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event.
+MSG: The decision has been recorded, and the movie "Oppenheimer" has been selected for Friday.
 </t>
         </is>
       </c>
@@ -6204,13 +6204,13 @@
       <c r="C263" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision," indicating that the committee did not finalize a choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6226,13 +6226,13 @@
       <c r="C264" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6248,7 +6248,7 @@
       <c r="C265" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Oppenheimer" will be acquired for the screening.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -6270,13 +6270,13 @@
       <c r="C266" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding the movie was not made, and the conversation ended without a plan for what movie to play on Friday.
 </t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       <c r="C267" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both "Oppenheimer" and "Barbie" for the upcoming event, as they plan to show both films in their entirety.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
@@ -6314,7 +6314,7 @@
       <c r="C268" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -6336,13 +6336,13 @@
       <c r="C269" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
       <c r="C270" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the committee's decision to conduct an anonymous vote regarding which film to show, and the absence of a definitive agreement or choice determined in the conversation, I am calling the `no_decision` function. This reflects the situation where a decision about Friday's movie has not been conclusively made.
+MSG: The decision has been recorded as "no_decision."
 </t>
         </is>
       </c>
@@ -6380,13 +6380,13 @@
       <c r="C271" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for the movie showing on Friday.
+MSG: The decision-making process did not result in a clear choice for Friday’s movie, so the outcome is recorded as no decision being reached.
 </t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6402,13 +6402,13 @@
       <c r="C272" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected in the discussion.
 </t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6424,13 +6424,13 @@
       <c r="C273" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" based on the discussions held by the committee members, reflecting their desire to provide an uplifting and empowering experience for the students.
+MSG: The decision about the movie to show on Friday has not been made, so there will be no acquisition of rights for any movie.
 </t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6446,13 +6446,13 @@
       <c r="C274" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision regarding the movie for Friday was reached.
 </t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6468,13 +6468,13 @@
       <c r="C275" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6490,13 +6490,13 @@
       <c r="C276" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire a movie was not made, resulting in a consensus that no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6512,13 +6512,13 @@
       <c r="C277" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -6534,7 +6534,7 @@
       <c r="C278" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -6556,13 +6556,13 @@
       <c r="C279" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -6578,13 +6578,13 @@
       <c r="C280" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The conversation ended without a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6600,7 +6600,7 @@
       <c r="C281" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -6622,13 +6622,13 @@
       <c r="C282" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6644,13 +6644,13 @@
       <c r="C283" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
+MSG: The decision about Friday's movie has resulted in no agreement, as indicated by the committee's discussion.
 </t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6666,13 +6666,13 @@
       <c r="C284" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the graduation event.
+MSG: The decision about what movie to show on Friday could not be made, and no choice was reached.
 </t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6688,7 +6688,7 @@
       <c r="C285" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded and the rights for "Oppenheimer" will be acquired.
 </t>
         </is>
       </c>
@@ -6710,13 +6710,13 @@
       <c r="C286" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" for screening on Friday.
+MSG: The decision has been recorded as no decision about Friday's movie can be made.
 </t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6732,7 +6732,7 @@
       <c r="C287" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for the movie "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie showing on Friday.
 </t>
         </is>
       </c>
@@ -6754,13 +6754,13 @@
       <c r="C288" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, and no movie will be selected for Friday.
 </t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6798,13 +6798,13 @@
       <c r="C290" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -6820,13 +6820,13 @@
       <c r="C291" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process concluded without a clear choice for Friday's movie, and thus no movie will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6842,13 +6842,13 @@
       <c r="C292" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       <c r="C293" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for screening.
 </t>
         </is>
       </c>
@@ -6886,13 +6886,13 @@
       <c r="C294" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for Friday's event.
+MSG: The decision was recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6908,13 +6908,13 @@
       <c r="C295" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Oppenheimer” to be shown at the event on Friday.
+MSG: The decision has been recorded, indicating that no consensus was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6930,13 +6930,13 @@
       <c r="C296" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision was recorded as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6952,13 +6952,13 @@
       <c r="C297" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision on which movie to show has ended without a clear agreement.
 </t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6974,13 +6974,13 @@
       <c r="C298" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
